--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35b42756d71d8ece/Pictures/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagta\OneDrive\Pictures\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6162CA-AC93-47C4-BBF6-0FF8538D7EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FA85C5-EA33-403F-9654-E0B5D4CEA3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{01B6691B-AC1C-4752-BE24-6BB5746CCDCB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>Phase</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Create wireframes /mockups for UI</t>
   </si>
   <si>
-    <t>1-2June</t>
-  </si>
-  <si>
     <t>Divya Gatkal</t>
   </si>
   <si>
@@ -117,9 +114,6 @@
     <t>Build pages with form validation, user roles (Admin/User), responsiveness</t>
   </si>
   <si>
-    <t>3-6June</t>
-  </si>
-  <si>
     <t>UI/UX Designing</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Set up server, routes, DB connection</t>
   </si>
   <si>
-    <t>7-12June</t>
-  </si>
-  <si>
     <t>8. API Integration</t>
   </si>
   <si>
@@ -181,6 +172,18 @@
   </si>
   <si>
     <t>11. Documentation &amp; Final Review</t>
+  </si>
+  <si>
+    <t>Partially Done</t>
+  </si>
+  <si>
+    <t>1-4June</t>
+  </si>
+  <si>
+    <t>5-10June</t>
+  </si>
+  <si>
+    <t>7-11June</t>
   </si>
 </sst>
 </file>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -283,7 +286,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -606,18 +608,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0117FFF-54E4-44BB-8876-72A11B5A7C1B}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G22" activeCellId="1" sqref="G13 G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.90625" customWidth="1"/>
-    <col min="2" max="2" width="55.6328125" customWidth="1"/>
+    <col min="2" max="2" width="63.6328125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.453125" customWidth="1"/>
     <col min="5" max="5" width="21.1796875" customWidth="1"/>
     <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -637,9 +640,9 @@
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -655,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -675,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -695,7 +698,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -715,52 +718,59 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>47</v>
+      <c r="A6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -768,73 +778,79 @@
       <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7">
         <v>45827</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="11">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10">
         <v>43983</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
